--- a/vehicle_inspection_database.xlsx
+++ b/vehicle_inspection_database.xlsx
@@ -872,23 +872,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12345</t>
+          <t>314</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>23456</t>
+          <t>41241</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>09876</t>
+          <t>42141</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ss</t>
+          <t>21442</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">

--- a/vehicle_inspection_database.xlsx
+++ b/vehicle_inspection_database.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -533,15 +533,11 @@
           <t>4x4-nonoffroad</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>95000</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>3500</t>
-        </is>
+      <c r="H2" t="n">
+        <v>95000</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3500</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -608,15 +604,11 @@
           <t>4x4-offroad</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>67000</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2500</t>
-        </is>
+      <c r="H3" t="n">
+        <v>67000</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2500</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -683,15 +675,11 @@
           <t>4x2</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>143000</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>5500</t>
-        </is>
+      <c r="H4" t="n">
+        <v>143000</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5500</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -754,15 +742,11 @@
           <t>4x2</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>87000</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>3200</t>
-        </is>
+      <c r="H5" t="n">
+        <v>87000</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3200</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -829,15 +813,11 @@
           <t>4x4-offroad</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>198000</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>6500</t>
-        </is>
+      <c r="H6" t="n">
+        <v>198000</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6500</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -916,7 +896,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ9"/>
+  <dimension ref="A1:AZ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2332,6 +2312,298 @@
       <c r="AY9" t="inlineStr"/>
       <c r="AZ9" t="inlineStr"/>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>INS-2026-010</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>35</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VWX 6789</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Nawaf</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>mmmmm</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Action Required</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>wipers</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>rearview-mirror,head-lights,windshields,side-windows</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>rearview-mirrors,brake-lights,taillights,turn-signal</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Action Required</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr"/>
+      <c r="AR10" t="inlineStr"/>
+      <c r="AS10" t="inlineStr"/>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AU10" t="inlineStr"/>
+      <c r="AV10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr"/>
+      <c r="AX10" t="inlineStr"/>
+      <c r="AY10" t="inlineStr"/>
+      <c r="AZ10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>INS-2026-011</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="n">
+        <v>28</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>PQR 8901</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>ssss</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>888822</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>jjjjj</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2345</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr"/>
+      <c r="AS11" t="inlineStr"/>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AU11" t="inlineStr"/>
+      <c r="AV11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr"/>
+      <c r="AX11" t="inlineStr"/>
+      <c r="AY11" t="inlineStr"/>
+      <c r="AZ11" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
